--- a/outputs-r202/f__F082.xlsx
+++ b/outputs-r202/f__F082.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,6 +558,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -601,6 +611,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -649,6 +664,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -697,6 +717,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -745,6 +770,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -793,6 +823,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -841,6 +876,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -889,6 +929,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -937,6 +982,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -985,6 +1035,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1033,6 +1088,11 @@
           <t>g__F082</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1077,6 +1137,11 @@
         <v>1</v>
       </c>
       <c r="N13" t="inlineStr">
+        <is>
+          <t>g__F082</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>g__F082</t>
         </is>
